--- a/template/misurazioni_master.xlsx
+++ b/template/misurazioni_master.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiapell/Library/CloudStorage/OneDrive-AgilentTechnologies/Documents/personale/PALLAVOLO/WebsiteTEST/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agilent-my.sharepoint.com/personal/marco_chiapello_agilent_com/Documents/Documents/personale/PALLAVOLO/U12F_Caluso_2324/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51B93DC-2D4A-B440-AC2B-3FB257CA60E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{DAFD43F8-958B-8246-84B0-72E0EFC00B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE9FF7EF-DE39-DA48-A421-E451CC0EE46F}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="4660" windowWidth="27640" windowHeight="16940" xr2:uid="{16EC1E6F-F961-5B48-9D8B-82F3A20D25B3}"/>
+    <workbookView xWindow="9340" yWindow="3720" windowWidth="27640" windowHeight="16940" xr2:uid="{16EC1E6F-F961-5B48-9D8B-82F3A20D25B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -52,12 +52,15 @@
     <t>Nascita</t>
   </si>
   <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>Greta</t>
+  </si>
+  <si>
     <t>Altezza</t>
   </si>
   <si>
-    <t>Peso</t>
-  </si>
-  <si>
     <t>yo-yo test</t>
   </si>
   <si>
@@ -71,6 +74,66 @@
   </si>
   <si>
     <t>muro</t>
+  </si>
+  <si>
+    <t>Chimineti</t>
+  </si>
+  <si>
+    <t>Martina</t>
+  </si>
+  <si>
+    <t>Fragonas</t>
+  </si>
+  <si>
+    <t>Matilde</t>
+  </si>
+  <si>
+    <t>Cireddu</t>
+  </si>
+  <si>
+    <t>Budau</t>
+  </si>
+  <si>
+    <t>Erika</t>
+  </si>
+  <si>
+    <t>Panetto</t>
+  </si>
+  <si>
+    <t>Margherita</t>
+  </si>
+  <si>
+    <t>Gerace</t>
+  </si>
+  <si>
+    <t>Valeria</t>
+  </si>
+  <si>
+    <t>Boni</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Beretta</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>Gillone</t>
+  </si>
+  <si>
+    <t>Arianna</t>
+  </si>
+  <si>
+    <t>Mauro</t>
+  </si>
+  <si>
+    <t>LaMonaca</t>
+  </si>
+  <si>
+    <t>Torchia</t>
   </si>
 </sst>
 </file>
@@ -132,16 +195,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -150,6 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,19 +522,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572B3500-6054-8540-B4F7-79E80B140921}">
-  <dimension ref="A1:K12"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D12"/>
+      <selection activeCell="E12" sqref="E12:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,169 +551,263 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5">
+        <v>41083</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5">
+        <v>41404</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>41248</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5">
+        <v>41226</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5">
+        <v>41040</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5">
+        <v>41323</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>9</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5">
+        <v>41263</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5">
+        <v>40633</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5">
+        <v>41036</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5">
+        <v>40987</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>41313</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5">
+        <v>41624</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -662,6 +817,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{8fcaca1c-04b8-40d7-944e-e72f4105afe1}" enabled="1" method="Standard" siteId="{a9c0bc09-8b46-4206-9351-2ba12fb4a5c0}" contentBits="0" removed="0"/>
+  <clbl:label id="{8fcaca1c-04b8-40d7-944e-e72f4105afe1}" enabled="1" method="Standard" siteId="{a9c0bc09-8b46-4206-9351-2ba12fb4a5c0}" removed="0"/>
 </clbl:labelList>
 </file>
--- a/template/misurazioni_master.xlsx
+++ b/template/misurazioni_master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agilent-my.sharepoint.com/personal/marco_chiapello_agilent_com/Documents/Documents/personale/PALLAVOLO/U12F_Caluso_2324/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiapell/personale/PALLAVOLO/U12F_Caluso_2324/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{DAFD43F8-958B-8246-84B0-72E0EFC00B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE9FF7EF-DE39-DA48-A421-E451CC0EE46F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019F66D7-9544-874A-95FE-734DD45C2B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9340" yWindow="3720" windowWidth="27640" windowHeight="16940" xr2:uid="{16EC1E6F-F961-5B48-9D8B-82F3A20D25B3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Nome</t>
   </si>
   <si>
-    <t>Nascita</t>
-  </si>
-  <si>
     <t>Adele</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>muro</t>
   </si>
   <si>
-    <t>Chimineti</t>
-  </si>
-  <si>
     <t>Martina</t>
   </si>
   <si>
@@ -134,6 +128,21 @@
   </si>
   <si>
     <t>Torchia</t>
+  </si>
+  <si>
+    <t>Chimienti</t>
+  </si>
+  <si>
+    <t>Celeste</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>De Luca</t>
+  </si>
+  <si>
+    <t>Aurora</t>
   </si>
 </sst>
 </file>
@@ -195,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -208,6 +217,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,19 +535,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:J13"/>
+      <selection activeCell="I2" sqref="I2:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,266 +558,289 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5">
-        <v>41083</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I2" s="5">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5">
-        <v>41404</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I3" s="5">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5">
-        <v>41248</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I4" s="5">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5">
-        <v>41226</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I5" s="5">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="5">
-        <v>41040</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I6" s="5">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="5">
-        <v>41323</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I7" s="5">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5">
-        <v>41263</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I8" s="5">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="5">
-        <v>40633</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I9" s="5">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="5">
-        <v>41036</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I10" s="5">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="5">
-        <v>40987</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I11" s="5">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5">
-        <v>41313</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I12" s="5">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="5">
-        <v>41624</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="I13" s="5">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="5">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="5">
+        <v>45278</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/misurazioni_master.xlsx
+++ b/template/misurazioni_master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiapell/personale/PALLAVOLO/U12F_Caluso_2324/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019F66D7-9544-874A-95FE-734DD45C2B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120E3BBA-DA62-D240-952D-174AD0A5585A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9340" yWindow="3720" windowWidth="27640" windowHeight="16940" xr2:uid="{16EC1E6F-F961-5B48-9D8B-82F3A20D25B3}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$15</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -130,9 +131,6 @@
     <t>Torchia</t>
   </si>
   <si>
-    <t>Chimienti</t>
-  </si>
-  <si>
     <t>Celeste</t>
   </si>
   <si>
@@ -143,6 +141,9 @@
   </si>
   <si>
     <t>Aurora</t>
+  </si>
+  <si>
+    <t>Chimineti</t>
   </si>
 </sst>
 </file>
@@ -166,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -200,11 +201,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,7 +244,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,7 +568,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I15"/>
+      <selection sqref="A1:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,19 +578,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -581,18 +611,18 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="5">
-        <v>45278</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -607,11 +637,11 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="5">
-        <v>45278</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -626,11 +656,11 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="5">
-        <v>45278</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -645,11 +675,11 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="5">
-        <v>45278</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -664,11 +694,11 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="5">
-        <v>45278</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -683,11 +713,11 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="5">
-        <v>45278</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -702,11 +732,11 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="5">
-        <v>45278</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -721,11 +751,11 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="5">
-        <v>45278</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -740,11 +770,11 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="5">
-        <v>45278</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -759,11 +789,11 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="5">
-        <v>45278</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -778,11 +808,11 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="5">
-        <v>45278</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -797,49 +827,49 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="5">
-        <v>45278</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="5">
-        <v>45278</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="2">
         <v>17</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="5">
-        <v>45278</v>
+        <v>45348</v>
       </c>
     </row>
   </sheetData>
